--- a/Test/【2021年度】Webアプリセキュアテキスト変更リスト_20210114.xlsx
+++ b/Test/【2021年度】Webアプリセキュアテキスト変更リスト_20210114.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\【2021年度】JavaOP講義用データ（JIET)\04.第四部_Java実践\02.セキュアコーディング概論\001_テキスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【2021年度】JavaOP講義用データ（JIET)\04.第四部_Java実践\02.セキュアコーディング概論\001_テキスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -528,11 +528,15 @@
 MySQL8.0</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -757,6 +761,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,12 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1117,7 +1121,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75">
-      <c r="B5" s="30">
+      <c r="B5" s="32">
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
@@ -1127,7 +1131,7 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" ht="18.75">
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1137,7 +1141,7 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" ht="18.75">
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -1147,7 +1151,7 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" ht="18.75">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1157,7 +1161,7 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1167,7 +1171,7 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" ht="18.75">
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -1177,7 +1181,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" ht="18.75">
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -1187,7 +1191,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="18.75">
-      <c r="B12" s="30"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -1197,7 +1201,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -1207,7 +1211,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="18.75">
-      <c r="B14" s="30"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -1217,7 +1221,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="18.75">
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -1227,7 +1231,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" ht="18.75">
-      <c r="B16" s="30"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="7">
         <v>11</v>
       </c>
@@ -1237,7 +1241,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="7">
         <v>12</v>
       </c>
@@ -1247,7 +1251,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" ht="18.75">
-      <c r="B18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="7">
         <v>13</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" ht="18.75">
-      <c r="B19" s="30"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="7">
         <v>14</v>
       </c>
@@ -1267,7 +1271,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" ht="18.75">
-      <c r="B20" s="30"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="7">
         <v>15</v>
       </c>
@@ -1277,7 +1281,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" ht="18.75">
-      <c r="B21" s="30"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="7">
         <v>16</v>
       </c>
@@ -1287,7 +1291,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" ht="18.75">
-      <c r="B22" s="30"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="18">
         <v>17</v>
       </c>
@@ -1299,7 +1303,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18.75">
-      <c r="B23" s="30"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="7">
         <v>18</v>
       </c>
@@ -1309,7 +1313,7 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="2:5" ht="18.75">
-      <c r="B24" s="30">
+      <c r="B24" s="32">
         <v>2</v>
       </c>
       <c r="C24" s="7"/>
@@ -1319,7 +1323,7 @@
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="2:5" ht="18.75">
-      <c r="B25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="15">
         <v>1</v>
       </c>
@@ -1331,7 +1335,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18.75">
-      <c r="B26" s="30"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="7">
         <v>2</v>
       </c>
@@ -1341,7 +1345,7 @@
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" ht="18.75">
-      <c r="B27" s="30"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="7">
         <v>3</v>
       </c>
@@ -1351,7 +1355,7 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" ht="18.75">
-      <c r="B28" s="30"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="7">
         <v>4</v>
       </c>
@@ -1361,7 +1365,7 @@
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" ht="18.75">
-      <c r="B29" s="30"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="7">
         <v>5</v>
       </c>
@@ -1371,7 +1375,7 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" ht="18.75">
-      <c r="B30" s="30"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="21">
         <v>6</v>
       </c>
@@ -1383,7 +1387,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75">
-      <c r="B31" s="30"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="7">
         <v>7</v>
       </c>
@@ -1393,7 +1397,7 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" ht="18.75">
-      <c r="B32" s="30"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="7">
         <v>8</v>
       </c>
@@ -1403,7 +1407,7 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" ht="18.75">
-      <c r="B33" s="30"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="7">
         <v>9</v>
       </c>
@@ -1413,7 +1417,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" ht="18.75">
-      <c r="B34" s="30"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="7">
         <v>10</v>
       </c>
@@ -1423,7 +1427,7 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="2:5" ht="18.75">
-      <c r="B35" s="30"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="7">
         <v>11</v>
       </c>
@@ -1433,7 +1437,7 @@
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="2:5" ht="18.75">
-      <c r="B36" s="30"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="7">
         <v>12</v>
       </c>
@@ -1443,7 +1447,7 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="2:5" ht="18.75">
-      <c r="B37" s="30">
+      <c r="B37" s="32">
         <v>3</v>
       </c>
       <c r="C37" s="7"/>
@@ -1453,7 +1457,7 @@
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="2:5" ht="18.75">
-      <c r="B38" s="30"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="7">
         <v>1</v>
       </c>
@@ -1463,7 +1467,7 @@
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="2:5" ht="18.75">
-      <c r="B39" s="30"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="7">
         <v>2</v>
       </c>
@@ -1473,7 +1477,7 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="2:5" ht="18.75">
-      <c r="B40" s="30"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="7">
         <v>3</v>
       </c>
@@ -1483,7 +1487,7 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="2:5" ht="18.75">
-      <c r="B41" s="30"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="7">
         <v>4</v>
       </c>
@@ -1493,7 +1497,7 @@
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="2:5" ht="18.75">
-      <c r="B42" s="30"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7">
         <v>5</v>
       </c>
@@ -1503,7 +1507,7 @@
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="2:5" ht="18.75">
-      <c r="B43" s="30"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7">
         <v>6</v>
       </c>
@@ -1513,7 +1517,7 @@
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="2:5" ht="18.75">
-      <c r="B44" s="30"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7">
         <v>7</v>
       </c>
@@ -1523,7 +1527,7 @@
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="2:5" ht="18.75">
-      <c r="B45" s="30"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="7">
         <v>8</v>
       </c>
@@ -1533,7 +1537,7 @@
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="2:5" ht="18.75">
-      <c r="B46" s="30"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="7">
         <v>9</v>
       </c>
@@ -1543,7 +1547,7 @@
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" ht="18.75">
-      <c r="B47" s="30"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="7">
         <v>10</v>
       </c>
@@ -1553,7 +1557,7 @@
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5" ht="18.75">
-      <c r="B48" s="30"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="7">
         <v>11</v>
       </c>
@@ -1563,7 +1567,7 @@
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="2:5" ht="18.75">
-      <c r="B49" s="30"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="7">
         <v>12</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" ht="18.75">
-      <c r="B50" s="30">
+      <c r="B50" s="32">
         <v>4</v>
       </c>
       <c r="C50" s="7"/>
@@ -1583,7 +1587,7 @@
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" ht="18.75">
-      <c r="B51" s="30"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="7">
         <v>1</v>
       </c>
@@ -1593,7 +1597,7 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" ht="18.75">
-      <c r="B52" s="30"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="7">
         <v>2</v>
       </c>
@@ -1603,7 +1607,7 @@
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" ht="18.75">
-      <c r="B53" s="30"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="7">
         <v>3</v>
       </c>
@@ -1613,7 +1617,7 @@
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" ht="18.75">
-      <c r="B54" s="30"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="7">
         <v>4</v>
       </c>
@@ -1623,7 +1627,7 @@
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" ht="18.75">
-      <c r="B55" s="30"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="7">
         <v>5</v>
       </c>
@@ -1633,7 +1637,7 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" ht="18.75">
-      <c r="B56" s="30"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="7">
         <v>6</v>
       </c>
@@ -1643,7 +1647,7 @@
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" ht="18.75">
-      <c r="B57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="7">
         <v>7</v>
       </c>
@@ -1653,7 +1657,7 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5" ht="18.75">
-      <c r="B58" s="30"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="7">
         <v>8</v>
       </c>
@@ -1663,7 +1667,7 @@
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="2:5" ht="18.75">
-      <c r="B59" s="30"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="7">
         <v>9</v>
       </c>
@@ -1673,7 +1677,7 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5" ht="18.75">
-      <c r="B60" s="30"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="7">
         <v>10</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5" ht="18.75">
-      <c r="B61" s="30"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="7">
         <v>11</v>
       </c>
@@ -1693,7 +1697,7 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5" ht="18.75">
-      <c r="B62" s="30"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="7">
         <v>12</v>
       </c>
@@ -1703,7 +1707,7 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" ht="18.75">
-      <c r="B63" s="30"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="7">
         <v>13</v>
       </c>
@@ -1713,7 +1717,7 @@
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="2:5" ht="18.75">
-      <c r="B64" s="30">
+      <c r="B64" s="32">
         <v>5</v>
       </c>
       <c r="C64" s="7"/>
@@ -1723,7 +1727,7 @@
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="2:5" ht="18.75">
-      <c r="B65" s="30"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="7">
         <v>1</v>
       </c>
@@ -1733,7 +1737,7 @@
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="2:5" ht="18.75">
-      <c r="B66" s="30"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="7">
         <v>2</v>
       </c>
@@ -1743,7 +1747,7 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5" ht="18.75">
-      <c r="B67" s="30"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="7">
         <v>3</v>
       </c>
@@ -1753,7 +1757,7 @@
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" ht="18.75">
-      <c r="B68" s="30"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="7">
         <v>4</v>
       </c>
@@ -1763,7 +1767,7 @@
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" ht="18.75">
-      <c r="B69" s="30"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="7">
         <v>5</v>
       </c>
@@ -1773,7 +1777,7 @@
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" ht="18.75">
-      <c r="B70" s="30"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="7">
         <v>6</v>
       </c>
@@ -1783,7 +1787,7 @@
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5" ht="18.75">
-      <c r="B71" s="30"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="7">
         <v>7</v>
       </c>
@@ -1793,7 +1797,7 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5" ht="18.75">
-      <c r="B72" s="30"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="7">
         <v>8</v>
       </c>
@@ -1803,7 +1807,7 @@
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="2:5" ht="18.75">
-      <c r="B73" s="30">
+      <c r="B73" s="32">
         <v>6</v>
       </c>
       <c r="C73" s="7"/>
@@ -1813,7 +1817,7 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5" ht="18.75">
-      <c r="B74" s="30"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="7">
         <v>1</v>
       </c>
@@ -1823,7 +1827,7 @@
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5" ht="18.75">
-      <c r="B75" s="30"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="7">
         <v>2</v>
       </c>
@@ -1833,7 +1837,7 @@
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5" ht="18.75">
-      <c r="B76" s="30"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="7">
         <v>3</v>
       </c>
@@ -1843,7 +1847,7 @@
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5" ht="18.75">
-      <c r="B77" s="30"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="7">
         <v>4</v>
       </c>
@@ -1853,7 +1857,7 @@
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5" ht="18.75">
-      <c r="B78" s="30"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="7">
         <v>5</v>
       </c>
@@ -1863,7 +1867,7 @@
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="2:5" ht="18.75">
-      <c r="B79" s="30"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="7">
         <v>6</v>
       </c>
@@ -1873,7 +1877,7 @@
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5" ht="18.75">
-      <c r="B80" s="30"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="7">
         <v>7</v>
       </c>
@@ -1883,7 +1887,7 @@
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5" ht="18.75">
-      <c r="B81" s="30">
+      <c r="B81" s="32">
         <v>7</v>
       </c>
       <c r="C81" s="7"/>
@@ -1893,7 +1897,7 @@
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5" ht="18.75">
-      <c r="B82" s="30"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="7">
         <v>1</v>
       </c>
@@ -1903,7 +1907,7 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" ht="18.75">
-      <c r="B83" s="30"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="7">
         <v>2</v>
       </c>
@@ -1913,7 +1917,7 @@
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" ht="18.75">
-      <c r="B84" s="30"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="7">
         <v>3</v>
       </c>
@@ -1923,7 +1927,7 @@
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5" ht="18.75">
-      <c r="B85" s="30"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="7">
         <v>4</v>
       </c>
@@ -1933,7 +1937,7 @@
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5" ht="18.75">
-      <c r="B86" s="30">
+      <c r="B86" s="32">
         <v>8</v>
       </c>
       <c r="C86" s="7"/>
@@ -1943,7 +1947,7 @@
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5" ht="18.75">
-      <c r="B87" s="30"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="7">
         <v>1</v>
       </c>
@@ -1953,7 +1957,7 @@
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5" ht="18.75">
-      <c r="B88" s="30"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="7">
         <v>2</v>
       </c>
@@ -1984,7 +1988,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2002,10 +2006,10 @@
       <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="35"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>120</v>
       </c>
       <c r="D2" s="38"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="31" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2024,7 +2028,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="36"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:5" ht="19.149999999999999" customHeight="1"/>
     <row r="5" spans="2:5">
@@ -2040,7 +2044,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1">
-      <c r="B6" s="30">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
       <c r="C6" s="7"/>
@@ -2050,7 +2054,7 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1">
-      <c r="B7" s="30"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
         <v>94</v>
@@ -2058,7 +2062,7 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1">
-      <c r="B8" s="30"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="7">
         <v>1</v>
       </c>
@@ -2068,17 +2072,19 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1">
-      <c r="B9" s="30"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="19">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="18" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>2</v>
       </c>
       <c r="C10" s="19"/>
@@ -2088,7 +2094,7 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" ht="18" customHeight="1">
-      <c r="B11" s="32"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="19">
         <v>1</v>
       </c>
@@ -2098,7 +2104,7 @@
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" ht="18" customHeight="1">
-      <c r="B12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="19">
         <v>2</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" ht="18" customHeight="1">
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="19">
         <v>3</v>
       </c>
@@ -2118,7 +2124,7 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
-      <c r="B14" s="32"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="19">
         <v>4</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="18" customHeight="1">
-      <c r="B15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="19">
         <v>5</v>
       </c>
@@ -2138,7 +2144,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" ht="18" customHeight="1">
-      <c r="B16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="19">
         <v>6</v>
       </c>
@@ -2148,7 +2154,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" ht="18" customHeight="1">
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="27">
         <v>7</v>
       </c>
@@ -2160,7 +2166,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" customHeight="1">
-      <c r="B18" s="32"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="19">
         <v>8</v>
       </c>
@@ -2170,7 +2176,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" ht="18" customHeight="1">
-      <c r="B19" s="32"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="19">
         <v>9</v>
       </c>
@@ -2180,7 +2186,7 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" ht="18" customHeight="1">
-      <c r="B20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="19">
         <v>10</v>
       </c>
@@ -2190,7 +2196,7 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1">
-      <c r="B21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="19">
         <v>11</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1">
-      <c r="B22" s="32"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="19">
         <v>12</v>
       </c>
@@ -2210,7 +2216,7 @@
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1">
-      <c r="B23" s="32"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="24">
         <v>13</v>
       </c>
@@ -2222,7 +2228,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1">
-      <c r="B24" s="32"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="24">
         <v>14</v>
       </c>
@@ -2232,7 +2238,7 @@
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" ht="18" customHeight="1">
-      <c r="B25" s="32"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="24">
         <v>15</v>
       </c>
@@ -2242,7 +2248,7 @@
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:5" ht="18" customHeight="1">
-      <c r="B26" s="32"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="24">
         <v>16</v>
       </c>
@@ -2252,7 +2258,7 @@
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1">
-      <c r="B27" s="33"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="24">
         <v>17</v>
       </c>
